--- a/civcraft/notes/tech tree.xlsx
+++ b/civcraft/notes/tech tree.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="239">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="252">
   <si>
     <t>Bow</t>
   </si>
@@ -58,9 +58,6 @@
   </si>
   <si>
     <t>Requires Efficiency &amp; Malting to continue</t>
-  </si>
-  <si>
-    <t>Requires Advanced Efficiency &amp; Innovation to continue</t>
   </si>
   <si>
     <t>T1 Hunting Bow</t>
@@ -409,27 +406,6 @@
     <t>Taxation</t>
   </si>
   <si>
-    <t>Unit Level 10</t>
-  </si>
-  <si>
-    <t>Unit Level 9</t>
-  </si>
-  <si>
-    <t>Unit Level 8</t>
-  </si>
-  <si>
-    <t>Unit Level 7</t>
-  </si>
-  <si>
-    <t>Unit Level 6</t>
-  </si>
-  <si>
-    <t>Unit Level 5</t>
-  </si>
-  <si>
-    <t>Unit Level 4</t>
-  </si>
-  <si>
     <t>Unit Level 3</t>
   </si>
   <si>
@@ -672,9 +648,6 @@
     <t>5 VP for Science</t>
   </si>
   <si>
-    <t>All tech must be completed, excluding Wonders &amp; other VP techs</t>
-  </si>
-  <si>
     <t>11b</t>
   </si>
   <si>
@@ -684,27 +657,12 @@
     <t>Knowledge, Global Trade</t>
   </si>
   <si>
-    <t>Adv. Automation, Trade</t>
-  </si>
-  <si>
-    <t>Adv. Automation, Commerce</t>
-  </si>
-  <si>
-    <t>Construction, Productivity</t>
-  </si>
-  <si>
     <t>T3 Mats, Adv. Artillery</t>
   </si>
   <si>
     <t>Notre Dame</t>
   </si>
   <si>
-    <t>Beliefs, Construction</t>
-  </si>
-  <si>
-    <t>Sci M, Comp Sci, Expert Artillery</t>
-  </si>
-  <si>
     <t>Great Pyramids</t>
   </si>
   <si>
@@ -774,9 +732,6 @@
     <t>Fertilizer</t>
   </si>
   <si>
-    <t>2x Farm Growth</t>
-  </si>
-  <si>
     <t>2x Cottage Bonus</t>
   </si>
   <si>
@@ -889,13 +844,136 @@
   </si>
   <si>
     <t>Tower Wall Parts</t>
+  </si>
+  <si>
+    <t>Unit Level City</t>
+  </si>
+  <si>
+    <t>Unit Level War</t>
+  </si>
+  <si>
+    <t>Plastics</t>
+  </si>
+  <si>
+    <t>Shulker Box</t>
+  </si>
+  <si>
+    <t>Scientific Victory</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">All tech must be completed, excluding Wonders </t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="10"/>
+        <color theme="0" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&amp; other VP techs</t>
+    </r>
+  </si>
+  <si>
+    <t>Disabled Tech</t>
+  </si>
+  <si>
+    <t>1,000,000 B | 7,500,000 C</t>
+  </si>
+  <si>
+    <t>Religion, Construction</t>
+  </si>
+  <si>
+    <t>Efficiency, Trade</t>
+  </si>
+  <si>
+    <t>Efficiency, Artillery</t>
+  </si>
+  <si>
+    <t>Sci Mth, Espionage, Mathemat.</t>
+  </si>
+  <si>
+    <t>e/</t>
+  </si>
+  <si>
+    <t>Requires Mathematics &amp; Innovation to continue</t>
+  </si>
+  <si>
+    <t>Nationailism, Productivity</t>
+  </si>
+  <si>
+    <t>Governments</t>
+  </si>
+  <si>
+    <t>Political Philosophy</t>
+  </si>
+  <si>
+    <t>Tier 1 Governments</t>
+  </si>
+  <si>
+    <t>(Despotism/Theocracy)</t>
+  </si>
+  <si>
+    <t>Divine Right</t>
+  </si>
+  <si>
+    <t>Suffrage</t>
+  </si>
+  <si>
+    <t>Tier 2 Governments</t>
+  </si>
+  <si>
+    <t>(Monarchy, Republic)</t>
+  </si>
+  <si>
+    <t>Tier 3 Governments</t>
+  </si>
+  <si>
+    <t>(Communism, Democracy)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">15,000 B </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>| 50,000 C</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1,400 B </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>| 14,000 C</t>
+    </r>
+  </si>
+  <si>
+    <t>50% Farm Growth/Tick</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="17">
+  <fonts count="19">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1019,6 +1097,22 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <strike/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="10"/>
+      <color theme="0" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="17">
     <fill>
@@ -1130,7 +1224,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="81">
+  <cellXfs count="88">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1353,7 +1447,28 @@
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1668,10 +1783,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R78"/>
+  <dimension ref="A1:T78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K38" sqref="K38"/>
+    <sheetView tabSelected="1" topLeftCell="E16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="N44" sqref="N44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1687,9 +1802,11 @@
     <col min="15" max="15" width="2.7109375" style="1" customWidth="1"/>
     <col min="16" max="17" width="25.7109375" style="7" customWidth="1"/>
     <col min="18" max="18" width="2.7109375" style="1" customWidth="1"/>
+    <col min="19" max="19" width="25.7109375" style="7" customWidth="1"/>
+    <col min="20" max="20" width="2.7109375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="1" customFormat="1" ht="12" customHeight="1">
+    <row r="1" spans="1:20" s="1" customFormat="1" ht="12" customHeight="1">
       <c r="B1" s="8"/>
       <c r="D1" s="8"/>
       <c r="E1" s="8"/>
@@ -1702,72 +1819,75 @@
       <c r="N1" s="8"/>
       <c r="P1" s="8"/>
       <c r="Q1" s="8"/>
-    </row>
-    <row r="2" spans="1:18" ht="15.75">
+      <c r="S1" s="8"/>
+    </row>
+    <row r="2" spans="1:20" ht="15.75">
       <c r="B2" s="30">
-        <v>100000</v>
+        <v>75000</v>
       </c>
       <c r="D2" s="63"/>
       <c r="E2" s="63"/>
       <c r="F2" s="63"/>
       <c r="G2" s="64" t="s">
-        <v>183</v>
+        <v>169</v>
       </c>
       <c r="I2" s="63" t="s">
-        <v>179</v>
+        <v>165</v>
       </c>
       <c r="J2" s="63" t="s">
-        <v>178</v>
+        <v>164</v>
       </c>
       <c r="K2" s="63" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="M2" s="63" t="s">
-        <v>177</v>
+        <v>163</v>
       </c>
       <c r="N2" s="63" t="s">
-        <v>180</v>
+        <v>166</v>
       </c>
       <c r="P2" s="63" t="s">
-        <v>181</v>
+        <v>167</v>
       </c>
       <c r="Q2" s="63" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>168</v>
+      </c>
+      <c r="S2" s="63"/>
+    </row>
+    <row r="3" spans="1:20">
       <c r="B3" s="42">
-        <v>250000</v>
+        <v>150000</v>
       </c>
       <c r="D3" s="27"/>
       <c r="E3" s="27"/>
       <c r="F3" s="27"/>
       <c r="G3" s="27" t="s">
-        <v>184</v>
+        <v>170</v>
       </c>
       <c r="I3" s="27" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="J3" s="27" t="s">
-        <v>169</v>
-      </c>
-      <c r="K3" s="27" t="s">
-        <v>175</v>
-      </c>
-      <c r="M3" s="27" t="s">
-        <v>170</v>
-      </c>
-      <c r="N3" s="27" t="s">
-        <v>171</v>
-      </c>
-      <c r="P3" s="27" t="s">
-        <v>172</v>
-      </c>
-      <c r="Q3" s="27" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" s="1" customFormat="1" ht="12" customHeight="1">
+        <v>160</v>
+      </c>
+      <c r="K3" s="79" t="s">
+        <v>232</v>
+      </c>
+      <c r="M3" s="79" t="s">
+        <v>233</v>
+      </c>
+      <c r="N3" s="79" t="s">
+        <v>234</v>
+      </c>
+      <c r="P3" s="80" t="s">
+        <v>238</v>
+      </c>
+      <c r="Q3" s="79" t="s">
+        <v>235</v>
+      </c>
+      <c r="S3" s="81"/>
+    </row>
+    <row r="4" spans="1:20" s="1" customFormat="1" ht="12" customHeight="1">
       <c r="B4" s="8"/>
       <c r="D4" s="8"/>
       <c r="E4" s="8"/>
@@ -1778,10 +1898,13 @@
       <c r="K4" s="8"/>
       <c r="M4" s="8"/>
       <c r="N4" s="8"/>
-      <c r="P4" s="8"/>
+      <c r="P4" s="8" t="s">
+        <v>236</v>
+      </c>
       <c r="Q4" s="8"/>
-    </row>
-    <row r="5" spans="1:18">
+      <c r="S4" s="8"/>
+    </row>
+    <row r="5" spans="1:20">
       <c r="B5" s="7" t="s">
         <v>4</v>
       </c>
@@ -1798,28 +1921,31 @@
         <v>3</v>
       </c>
       <c r="I5" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="M5" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="N5" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="J5" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="M5" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="N5" s="7" t="s">
+      <c r="P5" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="P5" s="7" t="s">
-        <v>29</v>
-      </c>
       <c r="Q5" s="7" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18" s="1" customFormat="1" ht="12" customHeight="1">
+        <v>97</v>
+      </c>
+      <c r="S5" s="7" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" s="1" customFormat="1" ht="12" customHeight="1">
       <c r="B6" s="8"/>
       <c r="D6" s="8"/>
       <c r="E6" s="8"/>
@@ -1832,8 +1958,9 @@
       <c r="N6" s="8"/>
       <c r="P6" s="8"/>
       <c r="Q6" s="8"/>
-    </row>
-    <row r="7" spans="1:18" s="2" customFormat="1" ht="15.75">
+      <c r="S6" s="8"/>
+    </row>
+    <row r="7" spans="1:20" s="2" customFormat="1" ht="15.75">
       <c r="A7" s="3"/>
       <c r="B7" s="2">
         <v>1</v>
@@ -1850,28 +1977,30 @@
       <c r="H7" s="3"/>
       <c r="I7" s="4"/>
       <c r="J7" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K7" s="4" t="s">
-        <v>223</v>
+        <v>208</v>
       </c>
       <c r="L7" s="3"/>
       <c r="M7" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="N7" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="O7" s="3"/>
       <c r="P7" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="Q7" s="4" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="R7" s="3"/>
-    </row>
-    <row r="8" spans="1:18">
+      <c r="S7" s="4"/>
+      <c r="T7" s="3"/>
+    </row>
+    <row r="8" spans="1:20">
       <c r="B8" s="7">
         <v>0</v>
       </c>
@@ -1885,25 +2014,26 @@
       <c r="G8" s="6"/>
       <c r="I8" s="6"/>
       <c r="J8" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K8" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="M8" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="N8" s="61" t="s">
-        <v>43</v>
+        <v>32</v>
+      </c>
+      <c r="N8" s="6" t="s">
+        <v>42</v>
       </c>
       <c r="P8" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="Q8" s="6" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>224</v>
+      </c>
+      <c r="S8" s="61"/>
+    </row>
+    <row r="9" spans="1:20">
       <c r="B9" s="29">
         <v>500</v>
       </c>
@@ -1915,17 +2045,18 @@
       <c r="J9" s="6"/>
       <c r="K9" s="6"/>
       <c r="M9" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="N9" s="6"/>
       <c r="P9" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="Q9" s="54" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" s="41" customFormat="1">
+        <v>108</v>
+      </c>
+      <c r="S9" s="6"/>
+    </row>
+    <row r="10" spans="1:20" s="41" customFormat="1">
       <c r="A10" s="40"/>
       <c r="B10" s="42">
         <v>5000</v>
@@ -1933,44 +2064,46 @@
       <c r="C10" s="40"/>
       <c r="D10" s="38"/>
       <c r="E10" s="38" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="F10" s="38" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="G10" s="38"/>
       <c r="H10" s="40"/>
       <c r="I10" s="38"/>
       <c r="J10" s="38" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="K10" s="38" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="L10" s="40"/>
       <c r="M10" s="38" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="N10" s="38" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="O10" s="40"/>
       <c r="P10" s="38" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="Q10" s="38" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="R10" s="40"/>
-    </row>
-    <row r="11" spans="1:18" s="12" customFormat="1">
+      <c r="S10" s="38"/>
+      <c r="T10" s="40"/>
+    </row>
+    <row r="11" spans="1:20" s="12" customFormat="1">
       <c r="A11" s="10"/>
       <c r="B11" s="28"/>
       <c r="C11" s="10"/>
       <c r="D11" s="11"/>
       <c r="E11" s="11"/>
       <c r="F11" s="71" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G11" s="11"/>
       <c r="H11" s="10"/>
@@ -1986,8 +2119,10 @@
         <v>7</v>
       </c>
       <c r="R11" s="10"/>
-    </row>
-    <row r="12" spans="1:18" s="1" customFormat="1" ht="12" customHeight="1">
+      <c r="S11" s="81"/>
+      <c r="T11" s="10"/>
+    </row>
+    <row r="12" spans="1:20" s="1" customFormat="1" ht="12" customHeight="1">
       <c r="B12" s="8"/>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
@@ -2000,8 +2135,9 @@
       <c r="N12" s="8"/>
       <c r="P12" s="8"/>
       <c r="Q12" s="8"/>
-    </row>
-    <row r="13" spans="1:18" s="2" customFormat="1" ht="15.75">
+      <c r="S12" s="8"/>
+    </row>
+    <row r="13" spans="1:20" s="2" customFormat="1" ht="15.75">
       <c r="A13" s="3"/>
       <c r="B13" s="2">
         <v>2</v>
@@ -2011,7 +2147,7 @@
         <v>9</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F13" s="5" t="s">
         <v>11</v>
@@ -2021,65 +2157,72 @@
       </c>
       <c r="H13" s="3"/>
       <c r="I13" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J13" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K13" s="5" t="s">
-        <v>227</v>
+        <v>212</v>
       </c>
       <c r="L13" s="3"/>
       <c r="M13" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="N13" s="5"/>
       <c r="O13" s="3"/>
       <c r="P13" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q13" s="5" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="R13" s="3"/>
-    </row>
-    <row r="14" spans="1:18">
+      <c r="S13" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="T13" s="3"/>
+    </row>
+    <row r="14" spans="1:20">
       <c r="B14" s="7">
         <v>1</v>
       </c>
       <c r="D14" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="F14" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="E14" s="9" t="s">
-        <v>137</v>
-      </c>
-      <c r="F14" s="9" t="s">
-        <v>16</v>
-      </c>
       <c r="G14" s="9" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="I14" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J14" s="60" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="K14" s="9" t="s">
-        <v>228</v>
+        <v>213</v>
       </c>
       <c r="M14" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="N14" s="9"/>
       <c r="P14" s="9" t="s">
-        <v>236</v>
-      </c>
-      <c r="Q14" s="50" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>221</v>
+      </c>
+      <c r="Q14" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="S14" s="9" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="B15" s="30">
         <v>1000</v>
       </c>
@@ -2088,64 +2231,71 @@
       <c r="F15" s="9"/>
       <c r="G15" s="9"/>
       <c r="I15" s="9" t="s">
-        <v>237</v>
+        <v>222</v>
       </c>
       <c r="J15" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K15" s="50"/>
       <c r="M15" s="76" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="N15" s="9"/>
       <c r="P15" s="9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="Q15" s="9"/>
-    </row>
-    <row r="16" spans="1:18" s="41" customFormat="1">
+      <c r="S15" s="9" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" s="41" customFormat="1">
       <c r="A16" s="40"/>
       <c r="B16" s="39">
         <v>7500</v>
       </c>
       <c r="C16" s="40"/>
       <c r="D16" s="37" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="E16" s="37" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="F16" s="37" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="G16" s="37" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="H16" s="40"/>
       <c r="I16" s="37" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="J16" s="37" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="K16" s="37" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="L16" s="40"/>
       <c r="M16" s="37" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="N16" s="37"/>
       <c r="O16" s="40"/>
       <c r="P16" s="37" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="Q16" s="37" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="R16" s="40"/>
-    </row>
-    <row r="17" spans="1:18" s="12" customFormat="1">
+      <c r="S16" s="37" t="s">
+        <v>250</v>
+      </c>
+      <c r="T16" s="40"/>
+    </row>
+    <row r="17" spans="1:20" s="12" customFormat="1">
       <c r="A17" s="10"/>
       <c r="B17" s="28"/>
       <c r="C17" s="10"/>
@@ -2167,7 +2317,7 @@
       </c>
       <c r="J17" s="11"/>
       <c r="K17" s="72" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L17" s="10"/>
       <c r="M17" s="11"/>
@@ -2176,8 +2326,12 @@
       <c r="P17" s="11"/>
       <c r="Q17" s="11"/>
       <c r="R17" s="10"/>
-    </row>
-    <row r="18" spans="1:18" s="1" customFormat="1" ht="12" customHeight="1">
+      <c r="S17" s="81" t="s">
+        <v>105</v>
+      </c>
+      <c r="T17" s="10"/>
+    </row>
+    <row r="18" spans="1:20" s="1" customFormat="1" ht="12" customHeight="1">
       <c r="B18" s="8"/>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
@@ -2190,8 +2344,9 @@
       <c r="N18" s="8"/>
       <c r="P18" s="8"/>
       <c r="Q18" s="8"/>
-    </row>
-    <row r="19" spans="1:18" s="2" customFormat="1" ht="15.75">
+      <c r="S18" s="8"/>
+    </row>
+    <row r="19" spans="1:20" s="2" customFormat="1" ht="15.75">
       <c r="A19" s="3"/>
       <c r="B19" s="2">
         <v>3</v>
@@ -2203,31 +2358,33 @@
       <c r="G19" s="15"/>
       <c r="H19" s="3"/>
       <c r="I19" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="J19" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="J19" s="15" t="s">
+      <c r="K19" s="15" t="s">
         <v>37</v>
-      </c>
-      <c r="K19" s="15" t="s">
-        <v>38</v>
       </c>
       <c r="L19" s="3"/>
       <c r="M19" s="15" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="N19" s="15" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="O19" s="3"/>
       <c r="P19" s="15" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="Q19" s="15" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="1:18">
+      <c r="S19" s="15"/>
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="1:20">
       <c r="B20" s="7">
         <v>2</v>
       </c>
@@ -2236,28 +2393,29 @@
       <c r="F20" s="16"/>
       <c r="G20" s="16"/>
       <c r="I20" s="59" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J20" s="16" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K20" s="16" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="M20" s="16" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="N20" s="75" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="P20" s="16" t="s">
-        <v>74</v>
-      </c>
-      <c r="Q20" s="53" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>73</v>
+      </c>
+      <c r="Q20" s="16" t="s">
+        <v>225</v>
+      </c>
+      <c r="S20" s="75"/>
+    </row>
+    <row r="21" spans="1:20">
       <c r="B21" s="30">
         <v>2000</v>
       </c>
@@ -2266,26 +2424,27 @@
       <c r="F21" s="16"/>
       <c r="G21" s="16"/>
       <c r="I21" s="16" t="s">
-        <v>219</v>
+        <v>204</v>
       </c>
       <c r="J21" s="16" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K21" s="53"/>
       <c r="M21" s="53" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="N21" s="16" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="P21" s="16" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="Q21" s="53" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18" s="41" customFormat="1">
+        <v>109</v>
+      </c>
+      <c r="S21" s="16"/>
+    </row>
+    <row r="22" spans="1:20" s="41" customFormat="1">
       <c r="A22" s="40"/>
       <c r="B22" s="42">
         <v>10000</v>
@@ -2297,40 +2456,42 @@
       <c r="G22" s="32"/>
       <c r="H22" s="40"/>
       <c r="I22" s="32" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="J22" s="32" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="K22" s="32" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="L22" s="40"/>
       <c r="M22" s="32" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="N22" s="32" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="O22" s="40"/>
       <c r="P22" s="32" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="Q22" s="32" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="R22" s="40"/>
-    </row>
-    <row r="23" spans="1:18" s="12" customFormat="1">
+      <c r="S22" s="32"/>
+      <c r="T22" s="40"/>
+    </row>
+    <row r="23" spans="1:20" s="12" customFormat="1">
       <c r="A23" s="10"/>
       <c r="B23" s="28"/>
       <c r="C23" s="10"/>
-      <c r="D23" s="77" t="s">
+      <c r="D23" s="82" t="s">
         <v>12</v>
       </c>
-      <c r="E23" s="77"/>
-      <c r="F23" s="77"/>
-      <c r="G23" s="77"/>
+      <c r="E23" s="82"/>
+      <c r="F23" s="82"/>
+      <c r="G23" s="82"/>
       <c r="H23" s="10"/>
       <c r="I23" s="11"/>
       <c r="J23" s="11"/>
@@ -2342,8 +2503,10 @@
       <c r="P23" s="11"/>
       <c r="Q23" s="11"/>
       <c r="R23" s="10"/>
-    </row>
-    <row r="24" spans="1:18" s="1" customFormat="1" ht="12" customHeight="1">
+      <c r="S23" s="81"/>
+      <c r="T23" s="10"/>
+    </row>
+    <row r="24" spans="1:20" s="1" customFormat="1" ht="12" customHeight="1">
       <c r="B24" s="8"/>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
@@ -2356,82 +2519,86 @@
       <c r="N24" s="8"/>
       <c r="P24" s="8"/>
       <c r="Q24" s="8"/>
-    </row>
-    <row r="25" spans="1:18" s="2" customFormat="1" ht="15.75">
+      <c r="S24" s="8"/>
+    </row>
+    <row r="25" spans="1:20" s="2" customFormat="1" ht="15.75">
       <c r="A25" s="3"/>
       <c r="B25" s="2">
         <v>4</v>
       </c>
       <c r="C25" s="3"/>
       <c r="D25" s="17" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E25" s="17" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="F25" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="G25" s="17" t="s">
         <v>20</v>
-      </c>
-      <c r="G25" s="17" t="s">
-        <v>21</v>
       </c>
       <c r="H25" s="3"/>
       <c r="I25" s="17" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J25" s="17" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="K25" s="17"/>
       <c r="L25" s="3"/>
       <c r="M25" s="17" t="s">
-        <v>186</v>
+        <v>172</v>
       </c>
       <c r="N25" s="17"/>
       <c r="O25" s="3"/>
       <c r="P25" s="17" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Q25" s="17" t="s">
-        <v>187</v>
+        <v>173</v>
       </c>
       <c r="R25" s="3"/>
-    </row>
-    <row r="26" spans="1:18">
+      <c r="S25" s="17"/>
+      <c r="T25" s="3"/>
+    </row>
+    <row r="26" spans="1:20">
       <c r="B26" s="7">
         <v>3</v>
       </c>
       <c r="D26" s="18" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E26" s="18" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="F26" s="18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G26" s="18" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="I26" s="18" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J26" s="18" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="K26" s="18"/>
       <c r="M26" s="18" t="s">
-        <v>185</v>
+        <v>171</v>
       </c>
       <c r="N26" s="18"/>
       <c r="P26" s="18" t="s">
-        <v>235</v>
-      </c>
-      <c r="Q26" s="48" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="27" spans="1:18">
+        <v>220</v>
+      </c>
+      <c r="Q26" s="18" t="s">
+        <v>100</v>
+      </c>
+      <c r="S26" s="18"/>
+    </row>
+    <row r="27" spans="1:20">
       <c r="B27" s="30">
         <v>4000</v>
       </c>
@@ -2445,53 +2612,56 @@
       <c r="M27" s="48"/>
       <c r="N27" s="18"/>
       <c r="P27" s="18" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="Q27" s="18" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="28" spans="1:18" s="41" customFormat="1">
+        <v>175</v>
+      </c>
+      <c r="S27" s="18"/>
+    </row>
+    <row r="28" spans="1:20" s="41" customFormat="1">
       <c r="A28" s="40"/>
       <c r="B28" s="42">
         <v>25000</v>
       </c>
       <c r="C28" s="40"/>
       <c r="D28" s="36" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E28" s="36" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F28" s="36" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G28" s="36" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H28" s="40"/>
       <c r="I28" s="36" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J28" s="36" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K28" s="36"/>
       <c r="L28" s="40"/>
       <c r="M28" s="36" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="N28" s="36"/>
       <c r="O28" s="40"/>
       <c r="P28" s="36" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="Q28" s="36" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="R28" s="40"/>
-    </row>
-    <row r="29" spans="1:18" s="12" customFormat="1">
+      <c r="S28" s="36"/>
+      <c r="T28" s="40"/>
+    </row>
+    <row r="29" spans="1:20" s="12" customFormat="1">
       <c r="A29" s="10"/>
       <c r="B29" s="28"/>
       <c r="C29" s="10"/>
@@ -2510,8 +2680,10 @@
       <c r="P29" s="11"/>
       <c r="Q29" s="11"/>
       <c r="R29" s="10"/>
-    </row>
-    <row r="30" spans="1:18" s="1" customFormat="1" ht="12" customHeight="1">
+      <c r="S29" s="81"/>
+      <c r="T29" s="10"/>
+    </row>
+    <row r="30" spans="1:20" s="1" customFormat="1" ht="12" customHeight="1">
       <c r="B30" s="8"/>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
@@ -2524,8 +2696,9 @@
       <c r="N30" s="8"/>
       <c r="P30" s="8"/>
       <c r="Q30" s="8"/>
-    </row>
-    <row r="31" spans="1:18" s="2" customFormat="1" ht="15.75">
+      <c r="S30" s="8"/>
+    </row>
+    <row r="31" spans="1:20" s="2" customFormat="1" ht="15.75">
       <c r="A31" s="3"/>
       <c r="B31" s="2">
         <v>5</v>
@@ -2537,31 +2710,35 @@
       <c r="G31" s="67"/>
       <c r="H31" s="3"/>
       <c r="I31" s="67" t="s">
-        <v>218</v>
+        <v>203</v>
       </c>
       <c r="J31" s="67" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="K31" s="67" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L31" s="3"/>
       <c r="M31" s="67" t="s">
-        <v>203</v>
+        <v>188</v>
       </c>
       <c r="N31" s="67" t="s">
-        <v>199</v>
+        <v>185</v>
       </c>
       <c r="O31" s="3"/>
       <c r="P31" s="67" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="Q31" s="67" t="s">
-        <v>188</v>
+        <v>174</v>
       </c>
       <c r="R31" s="3"/>
-    </row>
-    <row r="32" spans="1:18">
+      <c r="S31" s="67" t="s">
+        <v>243</v>
+      </c>
+      <c r="T31" s="3"/>
+    </row>
+    <row r="32" spans="1:20">
       <c r="B32" s="7">
         <v>4</v>
       </c>
@@ -2570,28 +2747,31 @@
       <c r="F32" s="68"/>
       <c r="G32" s="68"/>
       <c r="I32" s="69" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="J32" s="69" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="K32" s="68" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="M32" s="68" t="s">
-        <v>204</v>
+        <v>189</v>
       </c>
       <c r="N32" s="69" t="s">
-        <v>205</v>
+        <v>190</v>
       </c>
       <c r="P32" s="68" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q32" s="69" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="33" spans="1:18">
+        <v>72</v>
+      </c>
+      <c r="Q32" s="68" t="s">
+        <v>176</v>
+      </c>
+      <c r="S32" s="68" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
       <c r="B33" s="30">
         <v>10000</v>
       </c>
@@ -2600,24 +2780,25 @@
       <c r="F33" s="68"/>
       <c r="G33" s="68"/>
       <c r="I33" s="69" t="s">
-        <v>222</v>
+        <v>207</v>
       </c>
       <c r="J33" s="69" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="K33" s="68" t="s">
-        <v>229</v>
+        <v>214</v>
       </c>
       <c r="M33" s="69"/>
       <c r="N33" s="68"/>
       <c r="P33" s="68" t="s">
-        <v>80</v>
-      </c>
-      <c r="Q33" s="68" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="34" spans="1:18" s="41" customFormat="1">
+        <v>79</v>
+      </c>
+      <c r="Q33" s="68"/>
+      <c r="S33" s="68" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20" s="41" customFormat="1">
       <c r="A34" s="40"/>
       <c r="B34" s="42">
         <v>40000</v>
@@ -2629,31 +2810,35 @@
       <c r="G34" s="70"/>
       <c r="H34" s="40"/>
       <c r="I34" s="70" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J34" s="70" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K34" s="70" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="L34" s="40"/>
       <c r="M34" s="70" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="N34" s="70" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="O34" s="40"/>
       <c r="P34" s="70" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="Q34" s="70" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="R34" s="40"/>
-    </row>
-    <row r="35" spans="1:18" s="12" customFormat="1">
+      <c r="S34" s="70" t="s">
+        <v>249</v>
+      </c>
+      <c r="T34" s="40"/>
+    </row>
+    <row r="35" spans="1:20" s="12" customFormat="1">
       <c r="A35" s="10"/>
       <c r="B35" s="28"/>
       <c r="C35" s="10"/>
@@ -2672,8 +2857,12 @@
       <c r="P35" s="11"/>
       <c r="Q35" s="11"/>
       <c r="R35" s="10"/>
-    </row>
-    <row r="36" spans="1:18" s="1" customFormat="1" ht="12" customHeight="1">
+      <c r="S35" s="81" t="s">
+        <v>174</v>
+      </c>
+      <c r="T35" s="10"/>
+    </row>
+    <row r="36" spans="1:20" s="1" customFormat="1" ht="12" customHeight="1">
       <c r="B36" s="8"/>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
@@ -2686,8 +2875,9 @@
       <c r="N36" s="8"/>
       <c r="P36" s="8"/>
       <c r="Q36" s="8"/>
-    </row>
-    <row r="37" spans="1:18" s="2" customFormat="1" ht="15.75">
+      <c r="S36" s="8"/>
+    </row>
+    <row r="37" spans="1:20" s="2" customFormat="1" ht="15.75">
       <c r="A37" s="3"/>
       <c r="B37" s="2">
         <v>6</v>
@@ -2699,31 +2889,33 @@
       <c r="G37" s="21"/>
       <c r="H37" s="3"/>
       <c r="I37" s="21" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J37" s="21" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="K37" s="21" t="s">
-        <v>206</v>
+        <v>191</v>
       </c>
       <c r="L37" s="3"/>
       <c r="M37" s="21" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="N37" s="21" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="O37" s="3"/>
       <c r="P37" s="21" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="Q37" s="21" t="s">
-        <v>216</v>
+        <v>201</v>
       </c>
       <c r="R37" s="3"/>
-    </row>
-    <row r="38" spans="1:18">
+      <c r="S37" s="21"/>
+      <c r="T37" s="3"/>
+    </row>
+    <row r="38" spans="1:20">
       <c r="B38" s="7">
         <v>5</v>
       </c>
@@ -2732,28 +2924,27 @@
       <c r="F38" s="22"/>
       <c r="G38" s="22"/>
       <c r="I38" s="22" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J38" s="49" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="K38" s="22" t="s">
-        <v>207</v>
+        <v>192</v>
       </c>
       <c r="M38" s="66" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="N38" s="22" t="s">
-        <v>201</v>
+        <v>186</v>
       </c>
       <c r="P38" s="22" t="s">
-        <v>234</v>
-      </c>
-      <c r="Q38" s="49" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="39" spans="1:18">
+        <v>219</v>
+      </c>
+      <c r="Q38" s="22"/>
+      <c r="S38" s="22"/>
+    </row>
+    <row r="39" spans="1:20">
       <c r="B39" s="30">
         <v>20000</v>
       </c>
@@ -2762,22 +2953,23 @@
       <c r="F39" s="22"/>
       <c r="G39" s="22"/>
       <c r="I39" s="49" t="s">
-        <v>238</v>
+        <v>223</v>
       </c>
       <c r="J39" s="22"/>
       <c r="K39" s="22"/>
       <c r="M39" s="22"/>
       <c r="N39" s="22" t="s">
-        <v>202</v>
+        <v>187</v>
       </c>
       <c r="P39" s="22" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="Q39" s="49" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="40" spans="1:18" s="41" customFormat="1">
+        <v>178</v>
+      </c>
+      <c r="S39" s="22"/>
+    </row>
+    <row r="40" spans="1:20" s="41" customFormat="1">
       <c r="A40" s="40"/>
       <c r="B40" s="42">
         <v>75000</v>
@@ -2789,55 +2981,59 @@
       <c r="G40" s="35"/>
       <c r="H40" s="40"/>
       <c r="I40" s="35" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J40" s="35" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K40" s="35" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="L40" s="40"/>
       <c r="M40" s="35" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="N40" s="35" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="O40" s="40"/>
       <c r="P40" s="35" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="Q40" s="35" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="R40" s="40"/>
-    </row>
-    <row r="41" spans="1:18" s="12" customFormat="1">
+      <c r="S40" s="35"/>
+      <c r="T40" s="40"/>
+    </row>
+    <row r="41" spans="1:20" s="12" customFormat="1">
       <c r="A41" s="10"/>
       <c r="B41" s="28"/>
       <c r="C41" s="10"/>
-      <c r="D41" s="77" t="s">
+      <c r="D41" s="82" t="s">
         <v>13</v>
       </c>
-      <c r="E41" s="77"/>
-      <c r="F41" s="77"/>
-      <c r="G41" s="77"/>
+      <c r="E41" s="82"/>
+      <c r="F41" s="82"/>
+      <c r="G41" s="82"/>
       <c r="H41" s="10"/>
       <c r="I41" s="11"/>
       <c r="J41" s="11"/>
       <c r="K41" s="27"/>
       <c r="L41" s="10"/>
       <c r="M41" s="65" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="N41" s="27"/>
       <c r="O41" s="10"/>
       <c r="P41" s="11"/>
       <c r="Q41" s="11"/>
       <c r="R41" s="10"/>
-    </row>
-    <row r="42" spans="1:18" s="1" customFormat="1" ht="12" customHeight="1">
+      <c r="S41" s="81"/>
+      <c r="T41" s="10"/>
+    </row>
+    <row r="42" spans="1:20" s="1" customFormat="1" ht="12" customHeight="1">
       <c r="B42" s="8"/>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
@@ -2850,86 +3046,90 @@
       <c r="N42" s="8"/>
       <c r="P42" s="8"/>
       <c r="Q42" s="8"/>
-    </row>
-    <row r="43" spans="1:18" s="2" customFormat="1" ht="15.75">
+      <c r="S42" s="8"/>
+    </row>
+    <row r="43" spans="1:20" s="2" customFormat="1" ht="15.75">
       <c r="A43" s="3"/>
       <c r="B43" s="2">
         <v>7</v>
       </c>
       <c r="C43" s="3"/>
       <c r="D43" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="E43" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="E43" s="19" t="s">
+      <c r="F43" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="F43" s="19" t="s">
+      <c r="G43" s="19" t="s">
         <v>24</v>
-      </c>
-      <c r="G43" s="19" t="s">
-        <v>25</v>
       </c>
       <c r="H43" s="3"/>
       <c r="I43" s="19" t="s">
-        <v>220</v>
+        <v>205</v>
       </c>
       <c r="J43" s="19"/>
       <c r="K43" s="19" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="L43" s="3"/>
       <c r="M43" s="19" t="s">
-        <v>231</v>
+        <v>216</v>
       </c>
       <c r="N43" s="19" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="O43" s="3"/>
       <c r="P43" s="19" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="Q43" s="19" t="s">
-        <v>191</v>
+        <v>177</v>
       </c>
       <c r="R43" s="3"/>
-    </row>
-    <row r="44" spans="1:18">
+      <c r="S43" s="19"/>
+      <c r="T43" s="3"/>
+    </row>
+    <row r="44" spans="1:20">
       <c r="B44" s="7">
         <v>5</v>
       </c>
       <c r="D44" s="20" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="E44" s="20" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="F44" s="20" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="G44" s="20" t="s">
-        <v>125</v>
-      </c>
-      <c r="I44" s="51" t="s">
-        <v>95</v>
+        <v>117</v>
+      </c>
+      <c r="I44" s="57" t="s">
+        <v>94</v>
       </c>
       <c r="J44" s="20"/>
       <c r="K44" s="57" t="s">
-        <v>153</v>
-      </c>
-      <c r="M44" s="51" t="s">
-        <v>200</v>
+        <v>145</v>
+      </c>
+      <c r="M44" s="20" t="s">
+        <v>251</v>
       </c>
       <c r="N44" s="51" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="P44" s="20" t="s">
-        <v>72</v>
-      </c>
-      <c r="Q44" s="51" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="45" spans="1:18">
+        <v>71</v>
+      </c>
+      <c r="Q44" s="20" t="s">
+        <v>99</v>
+      </c>
+      <c r="S44" s="51"/>
+    </row>
+    <row r="45" spans="1:20">
       <c r="B45" s="30">
         <v>40000</v>
       </c>
@@ -2938,66 +3138,69 @@
       <c r="F45" s="20"/>
       <c r="G45" s="20"/>
       <c r="I45" s="20" t="s">
-        <v>221</v>
+        <v>206</v>
       </c>
       <c r="J45" s="20"/>
       <c r="K45" s="51" t="s">
-        <v>230</v>
+        <v>215</v>
       </c>
       <c r="M45" s="51" t="s">
-        <v>215</v>
+        <v>200</v>
       </c>
       <c r="N45" s="20"/>
       <c r="P45" s="20" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="Q45" s="20" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="46" spans="1:18" s="41" customFormat="1">
+        <v>179</v>
+      </c>
+      <c r="S45" s="20"/>
+    </row>
+    <row r="46" spans="1:20" s="41" customFormat="1">
       <c r="A46" s="40"/>
       <c r="B46" s="42">
         <v>200000</v>
       </c>
       <c r="C46" s="40"/>
       <c r="D46" s="34" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="E46" s="34" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="F46" s="34" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="G46" s="34" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="H46" s="40"/>
       <c r="I46" s="34" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="J46" s="34"/>
       <c r="K46" s="34" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="L46" s="40"/>
       <c r="M46" s="34" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="N46" s="34" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="O46" s="40"/>
       <c r="P46" s="34" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="Q46" s="34" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="R46" s="40"/>
-    </row>
-    <row r="47" spans="1:18" s="12" customFormat="1">
+      <c r="S46" s="34"/>
+      <c r="T46" s="40"/>
+    </row>
+    <row r="47" spans="1:20" s="12" customFormat="1">
       <c r="A47" s="10"/>
       <c r="B47" s="28"/>
       <c r="C47" s="10"/>
@@ -3006,20 +3209,24 @@
       <c r="F47" s="11"/>
       <c r="G47" s="11"/>
       <c r="H47" s="10"/>
-      <c r="I47" s="11"/>
+      <c r="I47" s="77" t="s">
+        <v>203</v>
+      </c>
       <c r="J47" s="11"/>
       <c r="K47" s="27"/>
       <c r="L47" s="10"/>
       <c r="M47" s="74" t="s">
-        <v>199</v>
+        <v>185</v>
       </c>
       <c r="N47" s="11"/>
       <c r="O47" s="10"/>
       <c r="P47" s="11"/>
       <c r="Q47" s="11"/>
       <c r="R47" s="10"/>
-    </row>
-    <row r="48" spans="1:18" s="1" customFormat="1" ht="12" customHeight="1">
+      <c r="S47" s="81"/>
+      <c r="T47" s="10"/>
+    </row>
+    <row r="48" spans="1:20" s="1" customFormat="1" ht="12" customHeight="1">
       <c r="B48" s="8"/>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
@@ -3032,8 +3239,9 @@
       <c r="N48" s="8"/>
       <c r="P48" s="8"/>
       <c r="Q48" s="8"/>
-    </row>
-    <row r="49" spans="1:18" s="2" customFormat="1" ht="15.75">
+      <c r="S48" s="8"/>
+    </row>
+    <row r="49" spans="1:20" s="2" customFormat="1" ht="15.75">
       <c r="A49" s="3"/>
       <c r="B49" s="2">
         <v>8</v>
@@ -3045,27 +3253,29 @@
       <c r="G49" s="23"/>
       <c r="H49" s="3"/>
       <c r="I49" s="23" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J49" s="23" t="s">
-        <v>208</v>
+        <v>193</v>
       </c>
       <c r="K49" s="23" t="s">
-        <v>213</v>
+        <v>198</v>
       </c>
       <c r="L49" s="3"/>
       <c r="M49" s="23"/>
       <c r="N49" s="23"/>
       <c r="O49" s="3"/>
       <c r="P49" s="23" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="Q49" s="23" t="s">
-        <v>194</v>
+        <v>180</v>
       </c>
       <c r="R49" s="3"/>
-    </row>
-    <row r="50" spans="1:18">
+      <c r="S49" s="23"/>
+      <c r="T49" s="3"/>
+    </row>
+    <row r="50" spans="1:20">
       <c r="B50" s="7">
         <v>6</v>
       </c>
@@ -3074,24 +3284,25 @@
       <c r="F50" s="24"/>
       <c r="G50" s="24"/>
       <c r="I50" s="55" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="J50" s="55" t="s">
-        <v>209</v>
+        <v>194</v>
       </c>
       <c r="K50" s="55" t="s">
-        <v>214</v>
+        <v>199</v>
       </c>
       <c r="M50" s="24"/>
       <c r="N50" s="24"/>
       <c r="P50" s="24" t="s">
-        <v>233</v>
+        <v>218</v>
       </c>
       <c r="Q50" s="55" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="51" spans="1:18">
+        <v>183</v>
+      </c>
+      <c r="S50" s="24"/>
+    </row>
+    <row r="51" spans="1:20">
       <c r="B51" s="30">
         <v>75000</v>
       </c>
@@ -3101,19 +3312,18 @@
       <c r="G51" s="24"/>
       <c r="I51" s="24"/>
       <c r="J51" s="55" t="s">
-        <v>210</v>
+        <v>195</v>
       </c>
       <c r="K51" s="24"/>
       <c r="M51" s="24"/>
       <c r="N51" s="24"/>
       <c r="P51" s="24" t="s">
-        <v>82</v>
-      </c>
-      <c r="Q51" s="55" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="52" spans="1:18" s="41" customFormat="1">
+        <v>81</v>
+      </c>
+      <c r="Q51" s="24"/>
+      <c r="S51" s="24"/>
+    </row>
+    <row r="52" spans="1:20" s="41" customFormat="1">
       <c r="A52" s="40"/>
       <c r="B52" s="42">
         <v>750000</v>
@@ -3125,27 +3335,29 @@
       <c r="G52" s="33"/>
       <c r="H52" s="40"/>
       <c r="I52" s="33" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J52" s="33" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K52" s="33" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L52" s="40"/>
       <c r="M52" s="33"/>
       <c r="N52" s="33"/>
       <c r="O52" s="40"/>
       <c r="P52" s="33" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Q52" s="33" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="R52" s="40"/>
-    </row>
-    <row r="53" spans="1:18" s="12" customFormat="1">
+      <c r="S52" s="33"/>
+      <c r="T52" s="40"/>
+    </row>
+    <row r="53" spans="1:20" s="12" customFormat="1">
       <c r="A53" s="10"/>
       <c r="B53" s="28"/>
       <c r="C53" s="10"/>
@@ -3164,8 +3376,10 @@
       <c r="P53" s="11"/>
       <c r="Q53" s="11"/>
       <c r="R53" s="10"/>
-    </row>
-    <row r="54" spans="1:18" s="1" customFormat="1" ht="12" customHeight="1">
+      <c r="S53" s="81"/>
+      <c r="T53" s="10"/>
+    </row>
+    <row r="54" spans="1:20" s="1" customFormat="1" ht="12" customHeight="1">
       <c r="B54" s="8"/>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
@@ -3178,8 +3392,9 @@
       <c r="N54" s="8"/>
       <c r="P54" s="8"/>
       <c r="Q54" s="8"/>
-    </row>
-    <row r="55" spans="1:18" s="2" customFormat="1" ht="15.75">
+      <c r="S54" s="8"/>
+    </row>
+    <row r="55" spans="1:20" s="2" customFormat="1" ht="15.75">
       <c r="A55" s="3"/>
       <c r="B55" s="2">
         <v>9</v>
@@ -3195,19 +3410,21 @@
       <c r="K55" s="25"/>
       <c r="L55" s="3"/>
       <c r="M55" s="25" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="N55" s="25"/>
       <c r="O55" s="3"/>
       <c r="P55" s="25" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="Q55" s="25" t="s">
-        <v>196</v>
+        <v>182</v>
       </c>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="1:18">
+      <c r="S55" s="25"/>
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="1:20">
       <c r="B56" s="7">
         <v>6</v>
       </c>
@@ -3219,17 +3436,18 @@
       <c r="J56" s="26"/>
       <c r="K56" s="26"/>
       <c r="M56" s="56" t="s">
-        <v>217</v>
+        <v>202</v>
       </c>
       <c r="N56" s="26"/>
       <c r="P56" s="26" t="s">
-        <v>71</v>
-      </c>
-      <c r="Q56" s="56" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="57" spans="1:18">
+        <v>70</v>
+      </c>
+      <c r="Q56" s="26" t="s">
+        <v>181</v>
+      </c>
+      <c r="S56" s="26"/>
+    </row>
+    <row r="57" spans="1:20">
       <c r="B57" s="30">
         <v>200000</v>
       </c>
@@ -3243,13 +3461,12 @@
       <c r="M57" s="26"/>
       <c r="N57" s="26"/>
       <c r="P57" s="26" t="s">
-        <v>83</v>
-      </c>
-      <c r="Q57" s="26" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="58" spans="1:18" s="41" customFormat="1">
+        <v>82</v>
+      </c>
+      <c r="Q57" s="26"/>
+      <c r="S57" s="26"/>
+    </row>
+    <row r="58" spans="1:20" s="41" customFormat="1">
       <c r="A58" s="40"/>
       <c r="B58" s="42">
         <v>1500000</v>
@@ -3265,28 +3482,30 @@
       <c r="K58" s="43"/>
       <c r="L58" s="40"/>
       <c r="M58" s="43" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="N58" s="43"/>
       <c r="O58" s="40"/>
       <c r="P58" s="43" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="Q58" s="43" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="R58" s="40"/>
-    </row>
-    <row r="59" spans="1:18" s="12" customFormat="1">
+      <c r="S58" s="43"/>
+      <c r="T58" s="40"/>
+    </row>
+    <row r="59" spans="1:20" s="12" customFormat="1">
       <c r="A59" s="10"/>
       <c r="B59" s="28"/>
       <c r="C59" s="10"/>
-      <c r="D59" s="77" t="s">
-        <v>14</v>
-      </c>
-      <c r="E59" s="77"/>
-      <c r="F59" s="77"/>
-      <c r="G59" s="77"/>
+      <c r="D59" s="82" t="s">
+        <v>237</v>
+      </c>
+      <c r="E59" s="82"/>
+      <c r="F59" s="82"/>
+      <c r="G59" s="82"/>
       <c r="H59" s="10"/>
       <c r="I59" s="11"/>
       <c r="J59" s="11"/>
@@ -3298,8 +3517,10 @@
       <c r="P59" s="11"/>
       <c r="Q59" s="11"/>
       <c r="R59" s="10"/>
-    </row>
-    <row r="60" spans="1:18" s="1" customFormat="1" ht="12" customHeight="1">
+      <c r="S59" s="81"/>
+      <c r="T59" s="10"/>
+    </row>
+    <row r="60" spans="1:20" s="1" customFormat="1" ht="12" customHeight="1">
       <c r="B60" s="8"/>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
@@ -3312,78 +3533,88 @@
       <c r="N60" s="8"/>
       <c r="P60" s="8"/>
       <c r="Q60" s="8"/>
-    </row>
-    <row r="61" spans="1:18" s="2" customFormat="1" ht="15.75">
+      <c r="S60" s="8"/>
+    </row>
+    <row r="61" spans="1:20" s="2" customFormat="1" ht="15.75">
       <c r="A61" s="3"/>
       <c r="B61" s="2">
         <v>10</v>
       </c>
       <c r="C61" s="3"/>
       <c r="D61" s="13" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="E61" s="13" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="F61" s="13" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="G61" s="13" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="H61" s="3"/>
       <c r="I61" s="13" t="s">
-        <v>211</v>
+        <v>196</v>
       </c>
       <c r="J61" s="13"/>
       <c r="K61" s="13" t="s">
-        <v>225</v>
+        <v>210</v>
       </c>
       <c r="L61" s="3"/>
-      <c r="M61" s="13"/>
+      <c r="M61" s="13" t="s">
+        <v>226</v>
+      </c>
       <c r="N61" s="13"/>
       <c r="O61" s="3"/>
       <c r="P61" s="13" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="Q61" s="13" t="s">
-        <v>198</v>
+        <v>184</v>
       </c>
       <c r="R61" s="3"/>
-    </row>
-    <row r="62" spans="1:18">
+      <c r="S61" s="13" t="s">
+        <v>244</v>
+      </c>
+      <c r="T61" s="3"/>
+    </row>
+    <row r="62" spans="1:20">
       <c r="B62" s="7">
         <v>7</v>
       </c>
       <c r="D62" s="14" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="E62" s="14" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="F62" s="14" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="G62" s="14" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="I62" s="73" t="s">
-        <v>212</v>
+        <v>197</v>
       </c>
       <c r="J62" s="14"/>
       <c r="K62" s="14" t="s">
-        <v>226</v>
-      </c>
-      <c r="M62" s="14"/>
+        <v>211</v>
+      </c>
+      <c r="M62" s="14" t="s">
+        <v>227</v>
+      </c>
       <c r="N62" s="14"/>
       <c r="P62" s="14" t="s">
-        <v>232</v>
-      </c>
-      <c r="Q62" s="52" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="63" spans="1:18">
+        <v>217</v>
+      </c>
+      <c r="Q62" s="14"/>
+      <c r="S62" s="14" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="63" spans="1:20">
       <c r="B63" s="30">
         <v>350000</v>
       </c>
@@ -3397,51 +3628,60 @@
       <c r="M63" s="14"/>
       <c r="N63" s="14"/>
       <c r="P63" s="14" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="Q63" s="52" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="64" spans="1:18" s="41" customFormat="1">
+        <v>110</v>
+      </c>
+      <c r="S63" s="14" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="64" spans="1:20" s="41" customFormat="1">
       <c r="A64" s="40"/>
       <c r="B64" s="42">
         <v>2500000</v>
       </c>
       <c r="C64" s="40"/>
       <c r="D64" s="31" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E64" s="31" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F64" s="31" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G64" s="31" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H64" s="40"/>
       <c r="I64" s="31" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J64" s="31"/>
       <c r="K64" s="31" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="L64" s="40"/>
-      <c r="M64" s="31"/>
+      <c r="M64" s="31" t="s">
+        <v>69</v>
+      </c>
       <c r="N64" s="31"/>
       <c r="O64" s="40"/>
       <c r="P64" s="31" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="Q64" s="31" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="R64" s="40"/>
-    </row>
-    <row r="65" spans="1:18" s="12" customFormat="1">
+      <c r="S64" s="31" t="s">
+        <v>48</v>
+      </c>
+      <c r="T64" s="40"/>
+    </row>
+    <row r="65" spans="1:20" s="12" customFormat="1">
       <c r="A65" s="10"/>
       <c r="B65" s="28"/>
       <c r="C65" s="10"/>
@@ -3452,16 +3692,24 @@
       <c r="H65" s="10"/>
       <c r="I65" s="11"/>
       <c r="J65" s="11"/>
-      <c r="K65" s="27"/>
+      <c r="K65" s="78" t="s">
+        <v>104</v>
+      </c>
       <c r="L65" s="10"/>
-      <c r="M65" s="11"/>
+      <c r="M65" s="78" t="s">
+        <v>198</v>
+      </c>
       <c r="N65" s="11"/>
       <c r="O65" s="10"/>
       <c r="P65" s="11"/>
       <c r="Q65" s="11"/>
       <c r="R65" s="10"/>
-    </row>
-    <row r="66" spans="1:18" s="1" customFormat="1" ht="12" customHeight="1">
+      <c r="S65" s="81" t="s">
+        <v>184</v>
+      </c>
+      <c r="T65" s="10"/>
+    </row>
+    <row r="66" spans="1:20" s="1" customFormat="1" ht="12" customHeight="1">
       <c r="B66" s="8"/>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
@@ -3474,11 +3722,12 @@
       <c r="N66" s="8"/>
       <c r="P66" s="8"/>
       <c r="Q66" s="8"/>
-    </row>
-    <row r="67" spans="1:18" s="2" customFormat="1" ht="15.75">
+      <c r="S66" s="8"/>
+    </row>
+    <row r="67" spans="1:20" s="2" customFormat="1" ht="15.75">
       <c r="A67" s="3"/>
       <c r="B67" s="2" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="C67" s="3"/>
       <c r="D67" s="44"/>
@@ -3486,39 +3735,50 @@
       <c r="F67" s="44"/>
       <c r="G67" s="44"/>
       <c r="H67" s="3"/>
-      <c r="I67" s="44"/>
-      <c r="J67" s="44"/>
-      <c r="K67" s="44"/>
+      <c r="I67" s="44" t="s">
+        <v>230</v>
+      </c>
+      <c r="J67" s="44" t="s">
+        <v>230</v>
+      </c>
+      <c r="K67" s="44" t="s">
+        <v>230</v>
+      </c>
       <c r="L67" s="3"/>
       <c r="M67" s="44"/>
       <c r="N67" s="44"/>
       <c r="O67" s="3"/>
-      <c r="P67" s="44"/>
+      <c r="P67" s="44" t="s">
+        <v>230</v>
+      </c>
       <c r="Q67" s="44"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="1:18">
+      <c r="S67" s="44"/>
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="1:20">
       <c r="D68" s="45"/>
       <c r="E68" s="45"/>
       <c r="F68" s="45"/>
       <c r="G68" s="45"/>
       <c r="I68" s="62" t="s">
-        <v>224</v>
+        <v>209</v>
       </c>
       <c r="J68" s="62" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="K68" s="62" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="M68" s="45"/>
       <c r="N68" s="45"/>
       <c r="P68" s="62" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="Q68" s="45"/>
-    </row>
-    <row r="69" spans="1:18">
+      <c r="S68" s="45"/>
+    </row>
+    <row r="69" spans="1:20">
       <c r="B69" s="30">
         <v>500000</v>
       </c>
@@ -3533,8 +3793,9 @@
       <c r="N69" s="45"/>
       <c r="P69" s="45"/>
       <c r="Q69" s="45"/>
-    </row>
-    <row r="70" spans="1:18" s="41" customFormat="1">
+      <c r="S69" s="45"/>
+    </row>
+    <row r="70" spans="1:20" s="41" customFormat="1">
       <c r="A70" s="40"/>
       <c r="B70" s="42">
         <v>4000000</v>
@@ -3546,25 +3807,27 @@
       <c r="G70" s="46"/>
       <c r="H70" s="40"/>
       <c r="I70" s="46" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="J70" s="46" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="K70" s="46" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="L70" s="40"/>
       <c r="M70" s="46"/>
       <c r="N70" s="46"/>
       <c r="O70" s="40"/>
       <c r="P70" s="46" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="Q70" s="46"/>
       <c r="R70" s="40"/>
-    </row>
-    <row r="71" spans="1:18" s="12" customFormat="1">
+      <c r="S70" s="46"/>
+      <c r="T70" s="40"/>
+    </row>
+    <row r="71" spans="1:20" s="12" customFormat="1">
       <c r="A71" s="10"/>
       <c r="B71" s="28"/>
       <c r="C71" s="10"/>
@@ -3581,14 +3844,16 @@
       <c r="N71" s="11"/>
       <c r="O71" s="10"/>
       <c r="P71" s="11" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="Q71" s="11" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="R71" s="10"/>
-    </row>
-    <row r="72" spans="1:18" s="1" customFormat="1" ht="12" customHeight="1">
+      <c r="S71" s="81"/>
+      <c r="T71" s="10"/>
+    </row>
+    <row r="72" spans="1:20" s="1" customFormat="1" ht="12" customHeight="1">
       <c r="B72" s="8"/>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
@@ -3601,115 +3866,122 @@
       <c r="N72" s="8"/>
       <c r="P72" s="8"/>
       <c r="Q72" s="8"/>
-    </row>
-    <row r="73" spans="1:18" s="2" customFormat="1" ht="15.75">
+      <c r="S72" s="8"/>
+    </row>
+    <row r="73" spans="1:20" s="2" customFormat="1" ht="15.75">
       <c r="A73" s="3"/>
       <c r="B73" s="2" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="C73" s="3"/>
-      <c r="D73" s="78" t="s">
-        <v>136</v>
-      </c>
-      <c r="E73" s="78"/>
-      <c r="F73" s="78"/>
-      <c r="G73" s="78"/>
-      <c r="H73" s="78"/>
-      <c r="I73" s="78"/>
-      <c r="J73" s="78"/>
-      <c r="K73" s="78"/>
-      <c r="L73" s="78"/>
-      <c r="M73" s="78"/>
-      <c r="N73" s="78"/>
-      <c r="O73" s="78"/>
-      <c r="P73" s="78"/>
-      <c r="Q73" s="78"/>
+      <c r="D73" s="83" t="s">
+        <v>128</v>
+      </c>
+      <c r="E73" s="83"/>
+      <c r="F73" s="83"/>
+      <c r="G73" s="83"/>
+      <c r="H73" s="83"/>
+      <c r="I73" s="83"/>
+      <c r="J73" s="83"/>
+      <c r="K73" s="83"/>
+      <c r="L73" s="83"/>
+      <c r="M73" s="83"/>
+      <c r="N73" s="83"/>
+      <c r="O73" s="83"/>
+      <c r="P73" s="83"/>
+      <c r="Q73" s="83"/>
       <c r="R73" s="3"/>
     </row>
-    <row r="74" spans="1:18">
-      <c r="D74" s="79" t="s">
-        <v>165</v>
-      </c>
-      <c r="E74" s="79"/>
-      <c r="F74" s="79"/>
-      <c r="G74" s="79"/>
-      <c r="H74" s="79"/>
-      <c r="I74" s="79"/>
-      <c r="J74" s="79"/>
-      <c r="K74" s="79"/>
-      <c r="L74" s="79"/>
-      <c r="M74" s="79"/>
-      <c r="N74" s="79"/>
-      <c r="O74" s="79"/>
-      <c r="P74" s="79"/>
-      <c r="Q74" s="79"/>
-    </row>
-    <row r="75" spans="1:18">
+    <row r="74" spans="1:20">
+      <c r="D74" s="84" t="s">
+        <v>157</v>
+      </c>
+      <c r="E74" s="85"/>
+      <c r="F74" s="85"/>
+      <c r="G74" s="85"/>
+      <c r="H74" s="85"/>
+      <c r="I74" s="85"/>
+      <c r="J74" s="85"/>
+      <c r="K74" s="85"/>
+      <c r="L74" s="85"/>
+      <c r="M74" s="85"/>
+      <c r="N74" s="85"/>
+      <c r="O74" s="85"/>
+      <c r="P74" s="85"/>
+      <c r="Q74" s="85"/>
+      <c r="S74"/>
+      <c r="T74"/>
+    </row>
+    <row r="75" spans="1:20">
       <c r="B75" s="30">
         <v>500000</v>
       </c>
-      <c r="D75" s="79"/>
-      <c r="E75" s="79"/>
-      <c r="F75" s="79"/>
-      <c r="G75" s="79"/>
-      <c r="H75" s="79"/>
-      <c r="I75" s="79"/>
-      <c r="J75" s="79"/>
-      <c r="K75" s="79"/>
-      <c r="L75" s="79"/>
-      <c r="M75" s="79"/>
-      <c r="N75" s="79"/>
-      <c r="O75" s="79"/>
-      <c r="P75" s="79"/>
-      <c r="Q75" s="79"/>
-    </row>
-    <row r="76" spans="1:18" s="41" customFormat="1">
+      <c r="D75" s="86" t="s">
+        <v>228</v>
+      </c>
+      <c r="E75" s="86"/>
+      <c r="F75" s="86"/>
+      <c r="G75" s="86"/>
+      <c r="H75" s="86"/>
+      <c r="I75" s="86"/>
+      <c r="J75" s="86"/>
+      <c r="K75" s="86"/>
+      <c r="L75" s="86"/>
+      <c r="M75" s="86"/>
+      <c r="N75" s="86"/>
+      <c r="O75" s="86"/>
+      <c r="P75" s="86"/>
+      <c r="Q75" s="86"/>
+      <c r="S75"/>
+      <c r="T75"/>
+    </row>
+    <row r="76" spans="1:20" s="41" customFormat="1">
       <c r="A76" s="40"/>
       <c r="B76" s="42">
         <v>4000000</v>
       </c>
       <c r="C76" s="40"/>
-      <c r="D76" s="80" t="s">
-        <v>134</v>
-      </c>
-      <c r="E76" s="80"/>
-      <c r="F76" s="80"/>
-      <c r="G76" s="80"/>
-      <c r="H76" s="80"/>
-      <c r="I76" s="80"/>
-      <c r="J76" s="80"/>
-      <c r="K76" s="80"/>
-      <c r="L76" s="80"/>
-      <c r="M76" s="80"/>
-      <c r="N76" s="80"/>
-      <c r="O76" s="80"/>
-      <c r="P76" s="80"/>
-      <c r="Q76" s="80"/>
+      <c r="D76" s="87" t="s">
+        <v>231</v>
+      </c>
+      <c r="E76" s="87"/>
+      <c r="F76" s="87"/>
+      <c r="G76" s="87"/>
+      <c r="H76" s="87"/>
+      <c r="I76" s="87"/>
+      <c r="J76" s="87"/>
+      <c r="K76" s="87"/>
+      <c r="L76" s="87"/>
+      <c r="M76" s="87"/>
+      <c r="N76" s="87"/>
+      <c r="O76" s="87"/>
+      <c r="P76" s="87"/>
+      <c r="Q76" s="87"/>
       <c r="R76" s="40"/>
     </row>
-    <row r="77" spans="1:18" s="12" customFormat="1">
+    <row r="77" spans="1:20" s="12" customFormat="1">
       <c r="A77" s="10"/>
       <c r="B77" s="28"/>
       <c r="C77" s="10"/>
-      <c r="D77" s="77" t="s">
-        <v>166</v>
-      </c>
-      <c r="E77" s="77"/>
-      <c r="F77" s="77"/>
-      <c r="G77" s="77"/>
-      <c r="H77" s="77"/>
-      <c r="I77" s="77"/>
-      <c r="J77" s="77"/>
-      <c r="K77" s="77"/>
-      <c r="L77" s="77"/>
-      <c r="M77" s="77"/>
-      <c r="N77" s="77"/>
-      <c r="O77" s="77"/>
-      <c r="P77" s="77"/>
-      <c r="Q77" s="77"/>
+      <c r="D77" s="82" t="s">
+        <v>229</v>
+      </c>
+      <c r="E77" s="82"/>
+      <c r="F77" s="82"/>
+      <c r="G77" s="82"/>
+      <c r="H77" s="82"/>
+      <c r="I77" s="82"/>
+      <c r="J77" s="82"/>
+      <c r="K77" s="82"/>
+      <c r="L77" s="82"/>
+      <c r="M77" s="82"/>
+      <c r="N77" s="82"/>
+      <c r="O77" s="82"/>
+      <c r="P77" s="82"/>
+      <c r="Q77" s="82"/>
       <c r="R77" s="10"/>
     </row>
-    <row r="78" spans="1:18" s="1" customFormat="1" ht="12" customHeight="1">
+    <row r="78" spans="1:20" s="1" customFormat="1" ht="12" customHeight="1">
       <c r="B78" s="8"/>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
@@ -3722,6 +3994,7 @@
       <c r="N78" s="8"/>
       <c r="P78" s="8"/>
       <c r="Q78" s="8"/>
+      <c r="S78" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="8">
